--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1310737.223930156</v>
+        <v>1396104.529963417</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9472121.688561894</v>
+        <v>9472121.688561896</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>130.9356567043873</v>
       </c>
       <c r="G2" t="n">
-        <v>244.8448976285503</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>186.0023345838242</v>
       </c>
       <c r="V3" t="n">
-        <v>86.2485866218082</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>69.19328548994024</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>37.55396940744669</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>133.1869618013098</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>165.0639335276198</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813369</v>
+        <v>33.74703566813371</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>126.5676106277171</v>
+        <v>91.08425949791268</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>23.45670719042427</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>171.7942984295219</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>114.1460214218936</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>118.4535900056856</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>9.894720173728517</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>13.3139824682292</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1421,19 +1423,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>52.48349153350305</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.7393319015626</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863209</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>111.9187566128687</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>126.5388824951715</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>282.3939120001623</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>142.6955872305731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>92.49804653646297</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>72.57171105915123</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899701</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>128.6794467600581</v>
       </c>
       <c r="F23" t="n">
-        <v>199.7325946875371</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.5873298926974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>85.17289288835124</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>71.67037196991704</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>77.31354443380407</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>28.93382893561953</v>
+        <v>36.06002841357613</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.78754698933359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>53.82704427691645</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>117.034061933962</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3092,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>206.1807275362177</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3244,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>210.1089145855752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>96.02901158147543</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>39.52405900590448</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>287.0552003724789</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>109.3235974497382</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>83.35317719075404</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>238.352071121595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>286.8517409876628</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.832771274809039</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>123.3523118163506</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>141.1762660121929</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>129.4714269367853</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>27.19292662790514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>77.23741368462436</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>77.42639794035698</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>26.30878201733127</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>69.97760604176398</v>
+        <v>145.418126457203</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="C2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="D2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="E2" t="n">
-        <v>801.1705019471538</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="F2" t="n">
-        <v>534.7928453799757</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672986</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298172</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4407,52 +4409,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304914</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166548</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480924</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9384134849059</v>
+        <v>718.3380755655976</v>
       </c>
       <c r="V3" t="n">
-        <v>375.818629018433</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="W3" t="n">
-        <v>121.5812722902314</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.3743762745875</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>186.4381933466805</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
         <v>36.32155393434482</v>
@@ -4501,7 +4503,7 @@
         <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>984.9633124404286</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>778.1762778509399</v>
       </c>
       <c r="T4" t="n">
-        <v>888.1296894089436</v>
+        <v>778.1762778509399</v>
       </c>
       <c r="U4" t="n">
-        <v>621.7520328417655</v>
+        <v>511.7986212837618</v>
       </c>
       <c r="V4" t="n">
-        <v>621.7520328417655</v>
+        <v>257.114133077875</v>
       </c>
       <c r="W4" t="n">
-        <v>355.3743762745875</v>
+        <v>257.114133077875</v>
       </c>
       <c r="X4" t="n">
-        <v>355.3743762745875</v>
+        <v>257.114133077875</v>
       </c>
       <c r="Y4" t="n">
-        <v>355.3743762745875</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.951282321832</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.951282321832</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="D5" t="n">
-        <v>1172.951282321832</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="E5" t="n">
         <v>1172.951282321832</v>
       </c>
       <c r="F5" t="n">
-        <v>761.9653775322245</v>
+        <v>761.9653775322244</v>
       </c>
       <c r="G5" t="n">
         <v>345.5190685452733</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780277</v>
+        <v>108.4604468780276</v>
       </c>
       <c r="K5" t="n">
-        <v>270.997549081869</v>
+        <v>270.9975490818687</v>
       </c>
       <c r="L5" t="n">
-        <v>509.540958737398</v>
+        <v>509.5409587373975</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176477</v>
+        <v>806.6359018176466</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058969</v>
+        <v>1113.151960058968</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836696</v>
+        <v>1389.251120836695</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921688</v>
+        <v>1590.394365921686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961955</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="T5" t="n">
-        <v>1339.682528309327</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="U5" t="n">
-        <v>1339.682528309327</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="V5" t="n">
-        <v>1172.951282321832</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="W5" t="n">
-        <v>1172.951282321832</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="X5" t="n">
-        <v>1172.951282321832</v>
+        <v>1558.739534920076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1172.951282321832</v>
+        <v>1558.739534920076</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.2450481634653</v>
+        <v>312.0891218499978</v>
       </c>
       <c r="C6" t="n">
-        <v>324.7920188823383</v>
+        <v>312.0891218499978</v>
       </c>
       <c r="D6" t="n">
-        <v>324.7920188823383</v>
+        <v>312.0891218499978</v>
       </c>
       <c r="E6" t="n">
-        <v>165.5545638768828</v>
+        <v>312.0891218499978</v>
       </c>
       <c r="F6" t="n">
         <v>165.5545638768828</v>
@@ -4638,58 +4640,58 @@
         <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765398</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J6" t="n">
-        <v>59.4758666532444</v>
+        <v>59.47586665324427</v>
       </c>
       <c r="K6" t="n">
-        <v>245.8075604192522</v>
+        <v>181.4029958650494</v>
       </c>
       <c r="L6" t="n">
-        <v>456.0761735419871</v>
+        <v>391.6716089877842</v>
       </c>
       <c r="M6" t="n">
-        <v>720.8065954987283</v>
+        <v>810.7563843308305</v>
       </c>
       <c r="N6" t="n">
-        <v>1006.952288910456</v>
+        <v>1096.902077742558</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.499900084654</v>
+        <v>1454.476414943143</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699123</v>
+        <v>1627.401425557611</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232579</v>
+        <v>1693.078019232577</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S6" t="n">
-        <v>1565.425748226737</v>
+        <v>1601.26751704472</v>
       </c>
       <c r="T6" t="n">
-        <v>1565.425748226737</v>
+        <v>1405.661631380059</v>
       </c>
       <c r="U6" t="n">
-        <v>1337.309540882222</v>
+        <v>1177.545424035543</v>
       </c>
       <c r="V6" t="n">
-        <v>1337.309540882222</v>
+        <v>942.3933158038003</v>
       </c>
       <c r="W6" t="n">
-        <v>1083.07218415402</v>
+        <v>688.1559590755987</v>
       </c>
       <c r="X6" t="n">
-        <v>875.2206839484872</v>
+        <v>480.3044588700658</v>
       </c>
       <c r="Y6" t="n">
-        <v>667.4603851835334</v>
+        <v>480.3044588700658</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.86543639135731</v>
+        <v>207.6757194303842</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135731</v>
+        <v>207.6757194303842</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135731</v>
+        <v>57.55908001804846</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135731</v>
+        <v>57.55908001804846</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135731</v>
+        <v>57.55908001804846</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652195</v>
+        <v>36.28512133652187</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128598</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119587</v>
+        <v>396.8594047119584</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191538</v>
+        <v>646.3363778191534</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361653</v>
+        <v>895.3159625361649</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
         <v>1268.828805580466</v>
@@ -4747,28 +4749,28 @@
         <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933646</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230163</v>
+        <v>975.8964400230154</v>
       </c>
       <c r="T7" t="n">
-        <v>751.4966890074593</v>
+        <v>751.4966890074584</v>
       </c>
       <c r="U7" t="n">
-        <v>577.9670946342048</v>
+        <v>462.3602076362711</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2826064283179</v>
+        <v>207.6757194303842</v>
       </c>
       <c r="W7" t="n">
-        <v>33.86543639135731</v>
+        <v>207.6757194303842</v>
       </c>
       <c r="X7" t="n">
-        <v>33.86543639135731</v>
+        <v>207.6757194303842</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.86543639135731</v>
+        <v>207.6757194303842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337129</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
         <v>1248.370234799863</v>
@@ -4802,16 +4804,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2317.990030011792</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2317.990030011792</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1986.927142668221</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312941</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337129</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>524.9806774183635</v>
+        <v>472.928063664427</v>
       </c>
       <c r="C10" t="n">
-        <v>356.0444944904566</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D10" t="n">
-        <v>356.0444944904566</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E10" t="n">
-        <v>208.1314009080635</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>61.24145341015313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4990,22 +4992,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.838891429094</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W10" t="n">
-        <v>927.4217213921333</v>
+        <v>882.5660793926841</v>
       </c>
       <c r="X10" t="n">
-        <v>927.4217213921333</v>
+        <v>654.5765284946667</v>
       </c>
       <c r="Y10" t="n">
-        <v>706.6291422486032</v>
+        <v>654.5765284946667</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1221.525483338121</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>852.5629663977095</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>494.2972677909589</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5069,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W11" t="n">
-        <v>2371.730413639134</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X11" t="n">
-        <v>1998.264655378055</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1608.125323402243</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5221,19 +5223,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W13" t="n">
         <v>1722.044275313594</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.241091287691</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.27857434728</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.012875740529</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.012875740529</v>
       </c>
       <c r="F14" t="n">
         <v>821.1650657389509</v>
@@ -5273,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609172</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.840931351813</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5476,10 +5478,10 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1320.35562273557</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C17" t="n">
-        <v>1320.35562273557</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>236.3260682181405</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2470.560553036583</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2470.560553036583</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>2097.094794775503</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y17" t="n">
-        <v>1706.955462799692</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.191681214136</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1638.191681214136</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,25 +5752,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3232.17345137032</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.502170148718</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="W20" t="n">
-        <v>2329.733514878603</v>
+        <v>2673.427048484428</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.267756617523</v>
+        <v>2299.961290223348</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>1909.821958247536</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5822,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.4482993600903</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>1920.850034779555</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T22" t="n">
-        <v>1699.083419349081</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="U22" t="n">
-        <v>1409.980552474725</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="V22" t="n">
-        <v>1155.296064268838</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="W22" t="n">
-        <v>865.8788942318776</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="X22" t="n">
-        <v>637.8893433338602</v>
+        <v>2892.365997936256</v>
       </c>
       <c r="Y22" t="n">
-        <v>417.0967641903301</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1381.278680221567</v>
+        <v>2089.358425227294</v>
       </c>
       <c r="C23" t="n">
-        <v>1012.316163281155</v>
+        <v>1720.395908286883</v>
       </c>
       <c r="D23" t="n">
-        <v>654.0504646744046</v>
+        <v>1362.130209680132</v>
       </c>
       <c r="E23" t="n">
-        <v>268.2622120761603</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6008,31 +6010,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792694</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.48361052258</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.0178522615</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="Y23" t="n">
-        <v>1767.878520285688</v>
+        <v>2475.958265291416</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6078,16 +6080,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="C25" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="D25" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="E25" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="F25" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>2928.458509941851</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621292</v>
+        <v>2384.671154861608</v>
       </c>
       <c r="W25" t="n">
-        <v>590.8070661251686</v>
+        <v>2095.253984824647</v>
       </c>
       <c r="X25" t="n">
-        <v>362.8175152271513</v>
+        <v>1867.26443392663</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.7293032143256</v>
+        <v>1646.4718547831</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796256</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C26" t="n">
-        <v>552.807938939214</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D26" t="n">
-        <v>194.5422403324635</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,10 +6238,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
@@ -6248,13 +6250,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
         <v>2755.806928794324</v>
@@ -6263,7 +6265,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
         <v>1698.509627919559</v>
@@ -6300,7 +6302,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6324,7 +6326,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.5649387724261</v>
+        <v>2151.073568494535</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445192</v>
+        <v>1982.137385566628</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>1832.020746154293</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>1537.217705073989</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>1849.200058761417</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.097191887061</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V28" t="n">
-        <v>1305.412703681174</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W28" t="n">
-        <v>1015.995533644213</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X28" t="n">
-        <v>788.005982746196</v>
+        <v>2553.514612468305</v>
       </c>
       <c r="Y28" t="n">
-        <v>567.2134036026658</v>
+        <v>2332.722033324775</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.812782134349</v>
+        <v>1091.323932370578</v>
       </c>
       <c r="C29" t="n">
-        <v>839.8502651939375</v>
+        <v>722.3614154301667</v>
       </c>
       <c r="D29" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3296.379731775211</v>
+        <v>3178.890882011441</v>
       </c>
       <c r="U29" t="n">
-        <v>3042.849255049048</v>
+        <v>2925.360405285277</v>
       </c>
       <c r="V29" t="n">
-        <v>2711.786367705477</v>
+        <v>2594.297517941706</v>
       </c>
       <c r="W29" t="n">
-        <v>2359.017712435363</v>
+        <v>2241.528862671592</v>
       </c>
       <c r="X29" t="n">
-        <v>1985.551954174283</v>
+        <v>1868.063104410512</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.412622198471</v>
+        <v>1477.9237724347</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6546,22 +6548,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>751.7882586869138</v>
+        <v>1614.940029365197</v>
       </c>
       <c r="C31" t="n">
-        <v>751.7882586869138</v>
+        <v>1614.940029365197</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658018</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U31" t="n">
-        <v>1705.527932658018</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V31" t="n">
-        <v>1450.843444452132</v>
+        <v>2368.365966925279</v>
       </c>
       <c r="W31" t="n">
-        <v>1161.426274415171</v>
+        <v>2078.948796888319</v>
       </c>
       <c r="X31" t="n">
-        <v>933.4367235171535</v>
+        <v>1850.959245990301</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.4367235171535</v>
+        <v>1796.588494195436</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1190.154071768027</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C32" t="n">
-        <v>1190.154071768027</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D32" t="n">
-        <v>1190.154071768027</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919558</v>
+        <v>1863.712025032944</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943746</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6789,7 +6791,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2320.988771034577</v>
+        <v>1761.157216147339</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>1761.157216147339</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622241</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039848</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541938</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916657</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366697</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888693</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V34" t="n">
-        <v>2320.988771034577</v>
+        <v>2368.36596692528</v>
       </c>
       <c r="W34" t="n">
-        <v>2320.988771034577</v>
+        <v>2078.948796888319</v>
       </c>
       <c r="X34" t="n">
-        <v>2320.988771034577</v>
+        <v>1981.949795290869</v>
       </c>
       <c r="Y34" t="n">
-        <v>2320.988771034577</v>
+        <v>1761.157216147339</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796247</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C35" t="n">
-        <v>881.8471639544687</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D35" t="n">
-        <v>523.5814653477182</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E35" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
@@ -6950,37 +6952,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450752</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919558</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943746</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,46 +7004,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.7661230698574</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>323.8299401419505</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8299401419505</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>323.8299401419505</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>176.9399926440401</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7126,19 +7128,19 @@
         <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>1446.505797040962</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V37" t="n">
-        <v>1191.821308835075</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W37" t="n">
-        <v>902.4041387981144</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X37" t="n">
-        <v>674.4145879000971</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.4145879000971</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.569348694471</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.60683175406</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>764.3411331473092</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810571</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7187,7 +7189,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7205,19 +7207,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734405</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.169188758593</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.4929502983416</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4929502983416</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218339</v>
@@ -7336,19 +7338,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
         <v>1927.294548088492</v>
@@ -7357,25 +7359,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.594608541189</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335302</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W40" t="n">
-        <v>782.4929502983416</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X40" t="n">
-        <v>782.4929502983416</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.4929502983416</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528559</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389512</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
@@ -7415,46 +7417,46 @@
         <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329467</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136267</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866153</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158142</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.8928126690262</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C43" t="n">
-        <v>241.8928126690262</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D43" t="n">
-        <v>241.8928126690262</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E43" t="n">
-        <v>93.97971908663308</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218345</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7573,19 +7575,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088492</v>
@@ -7594,25 +7596,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1849.276958508064</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658018</v>
+        <v>1849.276958508064</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783661</v>
+        <v>1560.174091633707</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577774</v>
+        <v>1305.48960342782</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408134</v>
+        <v>1016.07243339086</v>
       </c>
       <c r="X43" t="n">
-        <v>644.333856642796</v>
+        <v>1016.07243339086</v>
       </c>
       <c r="Y43" t="n">
-        <v>423.5412774992659</v>
+        <v>795.2798542473295</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2065.110222835252</v>
+        <v>1715.892666966215</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.14770589484</v>
+        <v>1346.930150025804</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1346.930150025804</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528559</v>
+        <v>961.1418974275593</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389512</v>
+        <v>550.1559926379518</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>135.0835424829483</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W44" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X44" t="n">
-        <v>2841.849394875186</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y44" t="n">
-        <v>2451.710062899374</v>
+        <v>2102.492507030337</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2614681692847</v>
+        <v>793.5809963705854</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3252852413779</v>
+        <v>624.6448134426785</v>
       </c>
       <c r="D46" t="n">
-        <v>458.6408346941415</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E46" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F46" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7810,19 +7812,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088492</v>
@@ -7831,25 +7833,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V46" t="n">
-        <v>1169.327103036485</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W46" t="n">
-        <v>879.9099329995245</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X46" t="n">
-        <v>879.9099329995245</v>
+        <v>1196.022040344355</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.9099329995245</v>
+        <v>975.2294612008251</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.262887399594547</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157951</v>
+        <v>25.82445471157959</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>65.05511571131566</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>155.9134882689954</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>119.2189151781689</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L9" t="n">
-        <v>114.3555089013352</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>296.7574771839099</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.1367138401488432</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>168.0688818921482</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>33.50229141006257</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.5947289549143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>45.35834646997256</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>83.01406815846406</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>16.68971525171287</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>255.1805474109837</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.3889571555937</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>105.283331899067</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>253.2509233122036</v>
       </c>
       <c r="F23" t="n">
-        <v>207.1434510541743</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.99732345939742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>296.7574771839105</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24461,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911118</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24652,10 +24654,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>142.2354048423651</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>174.9841412040007</v>
+        <v>167.857941726044</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>72.82792602887876</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24886,13 +24888,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>164.7576090751784</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>265.6997797295186</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>163.5503731422513</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>42.02872873825282</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>129.6806438075617</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7488327651031</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>94.87516969978287</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>56.70221080929005</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25366,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>142.3564781982831</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>143.5782989506667</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>82.87935969080621</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>138.7827017434033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>23.08165083021852</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>224.0966257588147</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>240.2596737416837</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>118.2281213950261</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>112.5316116468175</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>277.256643680326</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>268.2989823699892</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>78.63786697644838</v>
+        <v>3.197346561009368</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778222.4640547936</v>
+        <v>778222.4640547935</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778222.4640547934</v>
+        <v>778222.4640547936</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778222.4640547934</v>
+        <v>778222.4640547936</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778222.4640547934</v>
+        <v>778222.4640547931</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778222.4640547932</v>
+        <v>778222.4640547935</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778222.464054793</v>
+        <v>778222.4640547932</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778222.4640547934</v>
+        <v>778222.4640547932</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778222.4640547936</v>
+        <v>778222.4640547931</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>426246.3737136506</v>
       </c>
       <c r="F2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="G2" t="n">
         <v>426246.3737136507</v>
-      </c>
-      <c r="G2" t="n">
-        <v>426246.3737136506</v>
       </c>
       <c r="H2" t="n">
         <v>426246.3737136507</v>
@@ -26335,25 +26337,25 @@
         <v>426246.3737136507</v>
       </c>
       <c r="J2" t="n">
+        <v>426246.3737136508</v>
+      </c>
+      <c r="K2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="L2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>426246.3737136507</v>
-      </c>
-      <c r="L2" t="n">
-        <v>426246.3737136508</v>
-      </c>
-      <c r="M2" t="n">
-        <v>426246.3737136506</v>
       </c>
       <c r="N2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="O2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="P2" t="n">
         <v>426246.3737136509</v>
-      </c>
-      <c r="P2" t="n">
-        <v>426246.3737136508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26368,10 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739496</v>
+        <v>176672.6241739493</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819077</v>
+        <v>223886.3093819082</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171906</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640796</v>
+        <v>41076.98154640786</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.2912194682</v>
+        <v>54988.2912194684</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341488</v>
@@ -26418,7 +26420,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>204705.4033055023</v>
+        <v>204705.4033055024</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26436,19 +26438,19 @@
         <v>11600.2349971284</v>
       </c>
       <c r="I4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="J4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="K4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="L4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="M4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="N4" t="n">
         <v>11600.2349971284</v>
@@ -26457,7 +26459,7 @@
         <v>11600.2349971284</v>
       </c>
       <c r="P4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923112</v>
+        <v>75746.87167923109</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26479,34 +26481,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-482106.7428934599</v>
+        <v>-482106.7428934597</v>
       </c>
       <c r="C6" t="n">
-        <v>56026.20700649382</v>
+        <v>56026.20700649399</v>
       </c>
       <c r="D6" t="n">
-        <v>54784.20379084456</v>
+        <v>54784.20379084433</v>
       </c>
       <c r="E6" t="n">
-        <v>158266.8183379382</v>
+        <v>158266.8183379383</v>
       </c>
       <c r="F6" t="n">
         <v>340339.798155129</v>
       </c>
       <c r="G6" t="n">
-        <v>340339.7981551293</v>
+        <v>340339.798155129</v>
       </c>
       <c r="H6" t="n">
         <v>340339.7981551291</v>
       </c>
       <c r="I6" t="n">
-        <v>340339.7981551291</v>
+        <v>340339.7981551293</v>
       </c>
       <c r="J6" t="n">
         <v>271340.643736015</v>
@@ -26549,7 +26551,7 @@
         <v>299262.816608721</v>
       </c>
       <c r="L6" t="n">
-        <v>285351.506935661</v>
+        <v>285351.5069356606</v>
       </c>
       <c r="M6" t="n">
         <v>292787.5323617141</v>
@@ -26558,10 +26560,10 @@
         <v>340339.7981551291</v>
       </c>
       <c r="O6" t="n">
+        <v>340339.7981551291</v>
+      </c>
+      <c r="P6" t="n">
         <v>340339.7981551292</v>
-      </c>
-      <c r="P6" t="n">
-        <v>340339.7981551291</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908059</v>
+        <v>751.4467899908055</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919665</v>
+        <v>423.317954891966</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26799,37 +26801,37 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26962,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213275</v>
+        <v>137.3917762213273</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267333</v>
+        <v>182.6181021267337</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904598</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080729</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022539</v>
@@ -27036,10 +27038,10 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904598</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.266877208073</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022539</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904598</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080729</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022539</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>275.9403890373242</v>
       </c>
       <c r="G2" t="n">
-        <v>167.9892770171597</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27473,7 +27475,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>39.85215291973043</v>
       </c>
       <c r="V3" t="n">
-        <v>146.5520005276171</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>58.31131739372368</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>185.6603764721192</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539868</v>
+        <v>94.01296546539872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.994540038541601</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>162.6883249425151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,16 +27697,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
@@ -27743,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09313447978992</v>
+        <v>50.57648560959439</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>143.1792041860838</v>
       </c>
       <c r="H7" t="n">
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>114.4508181279535</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>251.1268703491139</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>88.20459497454812</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>156.4118798710757</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>273.2090158683618</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053489</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9377062833903</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677675</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599718</v>
+        <v>384.2687421599716</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159763</v>
+        <v>476.7193540159761</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285351</v>
+        <v>530.4421353285348</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383296</v>
+        <v>539.0252436383294</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113101</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906146</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190739</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639395</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
         <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.241671329444279</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328139</v>
+        <v>55.64959718328137</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499199</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876873</v>
+        <v>350.9469182876871</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449892</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345736</v>
+        <v>420.3777660345734</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587854</v>
+        <v>384.5635284587852</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077331</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970983</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633076</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807078</v>
+        <v>6.514901886807076</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31442,43 @@
         <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720634</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390978</v>
+        <v>95.80330632390974</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.4342619029917</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165515</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379548</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.5326998488041</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170111</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843483</v>
+        <v>60.9287839884348</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544876</v>
+        <v>23.61513928544875</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879978</v>
+        <v>5.789835922879975</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548918</v>
+        <v>0.07391279901548915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33266,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33509,13 +33511,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623228</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781708</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34790,10 +34792,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015063</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>123.5028874333356</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108124</v>
+        <v>75.34849544108113</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149912</v>
+        <v>164.1788911149911</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459891</v>
+        <v>240.9529390459889</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012624</v>
+        <v>300.0959021012621</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417387</v>
+        <v>309.6121800417384</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896234</v>
+        <v>278.8880411896232</v>
       </c>
       <c r="P5" t="n">
-        <v>203.174995035345</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446244</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665362</v>
+        <v>25.86912147665353</v>
       </c>
       <c r="K6" t="n">
-        <v>188.2138320868765</v>
+        <v>123.1587163755607</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078131</v>
+        <v>212.3925385078129</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229709</v>
+        <v>423.317954891966</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512403</v>
+        <v>289.0360539512401</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143409</v>
+        <v>361.1861991925096</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934029</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469258</v>
+        <v>66.33999361107666</v>
       </c>
       <c r="R6" t="n">
-        <v>0.195757914430942</v>
+        <v>0.1957579144308994</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237005</v>
+        <v>2.444126207236963</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771089</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171834</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628438</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819046</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.3064220369173</v>
+        <v>27.30642203691725</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L9" t="n">
-        <v>412.0358695391854</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35270,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -37157,13 +37159,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923356</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037213</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
